--- a/Pinouts.xlsx
+++ b/Pinouts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Type</t>
   </si>
@@ -146,6 +146,15 @@
   </si>
   <si>
     <t>22 awg</t>
+  </si>
+  <si>
+    <t>Tote Intake Sensor</t>
+  </si>
+  <si>
+    <t>Ejector Out</t>
+  </si>
+  <si>
+    <t>Ejector In</t>
   </si>
 </sst>
 </file>
@@ -201,10 +210,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -219,12 +229,17 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D23" totalsRowShown="0">
-  <autoFilter ref="A1:D23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D26" totalsRowShown="0">
+  <autoFilter ref="A1:D26"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Use"/>
     <tableColumn id="2" name="Type"/>
@@ -559,19 +574,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -585,7 +601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -600,7 +616,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -615,7 +631,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -630,7 +646,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -645,7 +661,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -660,7 +676,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -675,7 +691,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -690,7 +706,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -705,7 +721,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -720,7 +736,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -735,7 +751,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -750,7 +766,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -765,7 +781,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -780,7 +796,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -795,7 +811,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -810,7 +826,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -825,7 +841,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -840,7 +856,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -855,7 +871,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -870,7 +886,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -885,7 +901,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -893,23 +909,68 @@
         <v>25</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f>IF(EXACT(B23,"Analog"),IF(C23&lt;4,"RoboRio","MXP"),IF(EXACT(B23,"Digital"),IF(C23&lt;10,"RoboRio","MXP"),IF(EXACT(B23,"PWM"),IF(C23&lt;10,"RoboRio","MXP"),"N/A")))</f>
+        <v>RoboRio</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f>IF(EXACT(B24,"Analog"),IF(C24&lt;4,"RoboRio","MXP"),IF(EXACT(B24,"Digital"),IF(C24&lt;10,"RoboRio","MXP"),IF(EXACT(B24,"PWM"),IF(C24&lt;10,"RoboRio","MXP"),"N/A")))</f>
+        <v>RoboRio</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1">
+        <v>9</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f>IF(EXACT(B25,"Analog"),IF(C25&lt;4,"RoboRio","MXP"),IF(EXACT(B25,"Digital"),IF(C25&lt;10,"RoboRio","MXP"),IF(EXACT(B25,"PWM"),IF(C25&lt;10,"RoboRio","MXP"),"N/A")))</f>
+        <v>RoboRio</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C26" s="1">
         <v>0</v>
       </c>
-      <c r="D23" s="2" t="str">
-        <f>IF(EXACT(B23,"Analog"),IF(C23&lt;4,"RoboRio","MXP"),IF(EXACT(B23,"Digital"),IF(C23&lt;10,"RoboRio","MXP"),IF(EXACT(B23,"PWM"),IF(C23&lt;10,"RoboRio","MXP"),"N/A")))</f>
+      <c r="D26" s="2" t="str">
+        <f>IF(EXACT(B26,"Analog"),IF(C26&lt;4,"RoboRio","MXP"),IF(EXACT(B26,"Digital"),IF(C26&lt;10,"RoboRio","MXP"),IF(EXACT(B26,"PWM"),IF(C26&lt;10,"RoboRio","MXP"),"N/A")))</f>
         <v>N/A</v>
       </c>
     </row>
@@ -935,12 +996,12 @@
       <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -948,7 +1009,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -956,7 +1017,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -964,7 +1025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -972,7 +1033,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -980,7 +1041,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -988,7 +1049,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -996,7 +1057,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>

--- a/Pinouts.xlsx
+++ b/Pinouts.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26600" windowHeight="23040" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Type</t>
   </si>
@@ -146,15 +147,6 @@
   </si>
   <si>
     <t>22 awg</t>
-  </si>
-  <si>
-    <t>Tote Intake Sensor</t>
-  </si>
-  <si>
-    <t>Ejector Out</t>
-  </si>
-  <si>
-    <t>Ejector In</t>
   </si>
 </sst>
 </file>
@@ -210,11 +202,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -229,17 +220,330 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:trendline>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0250943498372864"/>
+                  <c:y val="-0.333535544800739"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$1:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2146122152"/>
+        <c:axId val="2146015608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2146122152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2146015608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2146015608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2146122152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D26" totalsRowShown="0">
-  <autoFilter ref="A1:D26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D23" totalsRowShown="0">
+  <autoFilter ref="A1:D23"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Use"/>
     <tableColumn id="2" name="Type"/>
@@ -574,20 +878,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D19" sqref="A19:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -601,7 +904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -616,7 +919,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -631,7 +934,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -646,7 +949,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -661,7 +964,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -676,7 +979,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -691,7 +994,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -706,7 +1009,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -721,7 +1024,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -736,7 +1039,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -751,7 +1054,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -766,7 +1069,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -781,7 +1084,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -796,7 +1099,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -811,7 +1114,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -826,7 +1129,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -841,7 +1144,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -856,7 +1159,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -871,7 +1174,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -886,7 +1189,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -901,7 +1204,7 @@
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -909,68 +1212,23 @@
         <v>25</v>
       </c>
       <c r="C22" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
         <v>RoboRio</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>42</v>
-      </c>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1">
-        <v>7</v>
-      </c>
-      <c r="D23" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="str">
         <f>IF(EXACT(B23,"Analog"),IF(C23&lt;4,"RoboRio","MXP"),IF(EXACT(B23,"Digital"),IF(C23&lt;10,"RoboRio","MXP"),IF(EXACT(B23,"PWM"),IF(C23&lt;10,"RoboRio","MXP"),"N/A")))</f>
-        <v>RoboRio</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1">
-        <v>8</v>
-      </c>
-      <c r="D24" s="3" t="str">
-        <f>IF(EXACT(B24,"Analog"),IF(C24&lt;4,"RoboRio","MXP"),IF(EXACT(B24,"Digital"),IF(C24&lt;10,"RoboRio","MXP"),IF(EXACT(B24,"PWM"),IF(C24&lt;10,"RoboRio","MXP"),"N/A")))</f>
-        <v>RoboRio</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1">
-        <v>9</v>
-      </c>
-      <c r="D25" s="3" t="str">
-        <f>IF(EXACT(B25,"Analog"),IF(C25&lt;4,"RoboRio","MXP"),IF(EXACT(B25,"Digital"),IF(C25&lt;10,"RoboRio","MXP"),IF(EXACT(B25,"PWM"),IF(C25&lt;10,"RoboRio","MXP"),"N/A")))</f>
-        <v>RoboRio</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2" t="str">
-        <f>IF(EXACT(B26,"Analog"),IF(C26&lt;4,"RoboRio","MXP"),IF(EXACT(B26,"Digital"),IF(C26&lt;10,"RoboRio","MXP"),IF(EXACT(B26,"PWM"),IF(C26&lt;10,"RoboRio","MXP"),"N/A")))</f>
         <v>N/A</v>
       </c>
     </row>
@@ -996,12 +1254,12 @@
       <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1009,7 +1267,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1017,7 +1275,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1025,7 +1283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1033,7 +1291,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1041,7 +1299,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1049,7 +1307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1057,7 +1315,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1070,4 +1328,258 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <f t="shared" ref="A2:A14" si="0">A1+1</f>
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <f>A14+2</f>
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <f t="shared" ref="A16:A26" si="1">A15+2</f>
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>0.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>